--- a/trend_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
+++ b/trend_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.599384550028735</v>
+        <v>0.400615449971265</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.213305414317375</v>
+        <v>0.786694585682625</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.134866993374764</v>
+        <v>0.865133006625236</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0003838310917476</v>
+        <v>0.999616168908252</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.633254779748298</v>
+        <v>0.033897126663138</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0127388535031847</v>
+        <v>0.0081967213114754</v>
       </c>
       <c r="H28" t="n">
-        <v>0.681528662420382</v>
+        <v>0.729508196721312</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0033356164383561</v>
+        <v>-0.0203270007661768</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0112571503154978</v>
+        <v>-0.0501717032967032</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0200972976052299</v>
+        <v>-0.002001975977397</v>
       </c>
       <c r="N28" t="n">
-        <v>0.311739854051978</v>
+        <v>-1.69391673051473</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.23216970161517e-06</v>
+        <v>0.031124693147859</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.802083333333333</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1825</v>
+        <v>10.27</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0067638888888888</v>
+        <v>-0.0408798867373032</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0043238645353061</v>
+        <v>-0.08001506281112181</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0093762586750203</v>
+        <v>-0.008895695645481301</v>
       </c>
       <c r="N29" t="n">
-        <v>3.70624048706241</v>
+        <v>-0.398051477481043</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.825275267318561</v>
+        <v>0.0001114748104824</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0204081632653061</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.693877551020408</v>
+        <v>0.828025477707006</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>479.5</v>
+        <v>0.187</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.27991845944473</v>
+        <v>0.0079735368607383</v>
       </c>
       <c r="L30" t="n">
-        <v>-12.0022645966252</v>
+        <v>0.004250058144125</v>
       </c>
       <c r="M30" t="n">
-        <v>7.19954220010903</v>
+        <v>0.0117999733660389</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.266927728768453</v>
+        <v>4.26392345494029</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.147460257205688</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0063694267515923</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.751592356687898</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.99983665788706</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.14207650273224</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.863387978142076</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.122101214525486</v>
+        <v>461</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0032298465310179</v>
+        <v>6.79308348247184</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0059409809659258</v>
+        <v>-4.13876745515599</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0018658482414556</v>
+        <v>18.4148553098343</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.64522064221056</v>
+        <v>1.47355390075311</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,11 +3280,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.175062146955285</v>
+        <v>0.99998743687126</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.155405405405405</v>
       </c>
       <c r="H32" t="n">
-        <v>0.818681318681319</v>
+        <v>0.858108108108108</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.974</v>
+        <v>0.127480196926304</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0048909749412685</v>
+        <v>-0.0079815378678709</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0040676848718322</v>
+        <v>-0.0118909706811257</v>
       </c>
       <c r="M32" t="n">
-        <v>0.012193261730757</v>
+        <v>-0.0037223317227701</v>
       </c>
       <c r="N32" t="n">
-        <v>0.502153484729834</v>
+        <v>-6.26100214803168</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.34971562165028</v>
+        <v>0.264030022575959</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0136054421768707</v>
       </c>
       <c r="H33" t="n">
-        <v>0.901041666666667</v>
+        <v>0.639455782312925</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2905</v>
+        <v>0.036</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0029911282984531</v>
+        <v>0.0004276932084309</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0080661722552851</v>
+        <v>-0.0006823997792649</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0139696847519918</v>
+        <v>0.0012482911825017</v>
       </c>
       <c r="N33" t="n">
-        <v>0.231780573301289</v>
+        <v>1.18803669008587</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999997970229109</v>
+        <v>0.264356148542886</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.872448979591837</v>
+        <v>0.850340136054422</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.025</v>
+        <v>1.01</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.145436646912502</v>
+        <v>0.0046528662420382</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.217024016513833</v>
+        <v>-0.0075067479552904</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.07636306643116431</v>
+        <v>0.0168527163110915</v>
       </c>
       <c r="N34" t="n">
-        <v>-4.8078230384298</v>
+        <v>0.460679825944378</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.889664319040077</v>
+        <v>0.108690152148666</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.561290322580645</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.45</v>
+        <v>7.75</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0312085073195547</v>
+        <v>-0.009981987577639699</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0304643449240386</v>
+        <v>-0.0210354058575439</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0733615949870445</v>
+        <v>0.0020832460871756</v>
       </c>
       <c r="N35" t="n">
-        <v>6.93522384878992</v>
+        <v>-0.12879983971148</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.889664319040077</v>
+        <v>0.8662156214007291</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.936305732484076</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>96</v>
+        <v>1.365</v>
       </c>
       <c r="K36" t="n">
-        <v>3.434122510594</v>
+        <v>-0.0110926333609073</v>
       </c>
       <c r="L36" t="n">
-        <v>-4.87340280041137</v>
+        <v>-0.0250801786298436</v>
       </c>
       <c r="M36" t="n">
-        <v>8.832905746011219</v>
+        <v>0.0056217883525105</v>
       </c>
       <c r="N36" t="n">
-        <v>3.57721094853542</v>
+        <v>-0.812647132667198</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3717,7 +3717,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3727,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3742,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.59675202974633</v>
+        <v>0.991644006644247</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.7898089171974521</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.06</v>
+        <v>1.711</v>
       </c>
       <c r="K37" t="n">
-        <v>0.672468825181208</v>
+        <v>-0.0220192278270726</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.21363152199399</v>
+        <v>-0.0343118162438541</v>
       </c>
       <c r="M37" t="n">
-        <v>1.55034945720429</v>
+        <v>-0.0074878111146298</v>
       </c>
       <c r="N37" t="n">
-        <v>11.0968453000199</v>
+        <v>-1.28692155622867</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3775,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3804,7 +3808,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3814,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.464222020750296</v>
+        <v>0.0005291360473521</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9</v>
+        <v>0.898089171974522</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4525</v>
+        <v>0.249</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0007337284049819</v>
+        <v>0.0073755892532705</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0199226206970029</v>
+        <v>0.0031835736885883</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0215548975598671</v>
+        <v>0.0113734106162517</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.162149923752911</v>
+        <v>2.96208403745805</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3899,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>0.999191452226789</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8</v>
+        <v>0.89171974522293</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>98</v>
+        <v>2.73</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-0.10602601762776</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.64131360445137</v>
+        <v>-0.179791340167633</v>
       </c>
       <c r="M39" t="n">
-        <v>2.59158912692846</v>
+        <v>-0.055160562315098</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>-3.88373690944174</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3978,7 +3990,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3988,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4003,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.639742606431872</v>
+        <v>0.633254779748298</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0127388535031847</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.681528662420382</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>4.792</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>0.113740755157649</v>
+        <v>0.0033356164383561</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.332664554925354</v>
+        <v>-0.0112571503154978</v>
       </c>
       <c r="M40" t="n">
-        <v>0.462426350896793</v>
+        <v>0.0200972976052299</v>
       </c>
       <c r="N40" t="n">
-        <v>2.37355499076897</v>
+        <v>0.311739854051978</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4065,7 +4081,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4075,14 +4095,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4090,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.809986275336257</v>
+        <v>1.23216970161517e-06</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8</v>
+        <v>0.802083333333333</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>96.5</v>
+        <v>0.1825</v>
       </c>
       <c r="K41" t="n">
-        <v>0.589111151810527</v>
+        <v>0.0067638888888888</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.154768876632409</v>
+        <v>0.0043238645353061</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06223783108576</v>
+        <v>0.0093762586750203</v>
       </c>
       <c r="N41" t="n">
-        <v>0.610477877523862</v>
+        <v>3.70624048706241</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4123,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4152,7 +4172,1162 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.825275267318561</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0204081632653061</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.693877551020408</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-1.27991845944473</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-12.0022645966252</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.19954220010903</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.266927728768453</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.99983665788706</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.14207650273224</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.863387978142076</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.122101214525486</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0032298465310179</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0059409809659258</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0018658482414556</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-2.64522064221056</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.175062146955285</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.818681318681319</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0048909749412685</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0040676848718322</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.012193261730757</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.502153484729834</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.34971562165028</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.901041666666667</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.2905</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0029911282984531</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0080661722552851</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0139696847519918</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.231780573301289</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.999997970229109</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.872448979591837</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.145436646912502</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.217024016513833</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.07636306643116431</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-4.8078230384298</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0312085073195547</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0304643449240386</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0733615949870445</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.93522384878992</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>96</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.434122510594</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-4.87340280041137</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8.832905746011219</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.57721094853542</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.672468825181208</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.21363152199399</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.55034945720429</v>
+      </c>
+      <c r="N49" t="n">
+        <v>11.0968453000199</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.464222020750296</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.4525</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0007337284049819</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0199226206970029</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0215548975598671</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.162149923752911</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>98</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-1.64131360445137</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.59158912692846</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.792</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.113740755157649</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.332664554925354</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.462426350896793</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.37355499076897</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>97</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.815996427429007</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.00896705619286</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.809986275336257</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.589111151810527</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.154768876632409</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.06223783108576</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.610477877523862</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
+++ b/trend_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.433592093009112</v>
+        <v>0.397445358956716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.037037037037037</v>
+        <v>0.05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.814814814814815</v>
+        <v>0.95</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0005830007980845</v>
+        <v>-0.0211571683673469</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.145149699110877</v>
+        <v>-0.213686520848277</v>
       </c>
       <c r="M2" t="n">
-        <v>0.204835300917073</v>
+        <v>0.097566120076529</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09716679968076621</v>
+        <v>-5.71815361279647</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.400615449971265</v>
+        <v>0.46656076005735</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.923076923076923</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.02</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0300310051790315</v>
+        <v>-0.0300310051790316</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.136103005747421</v>
+        <v>-0.159849236334857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0495039064068601</v>
+        <v>0.06835369631495231</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.299710630529257</v>
+        <v>-0.301516116255337</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.225045530497818</v>
+        <v>0.999920417515911</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.233</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0187307692307692</v>
+        <v>-0.0275108173076923</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.009682474234089199</v>
+        <v>-0.052381518592277</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0416934678685862</v>
+        <v>-0.0193064197600985</v>
       </c>
       <c r="N4" t="n">
-        <v>8.038956751403109</v>
+        <v>-11.8072177286233</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.676459201954479</v>
+        <v>0.911418551238856</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.846153846153846</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>465.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-17.1512896825397</v>
+        <v>-42.1916954996223</v>
       </c>
       <c r="L5" t="n">
-        <v>-108.943401550942</v>
+        <v>-111.505555285323</v>
       </c>
       <c r="M5" t="n">
-        <v>48.3677780115095</v>
+        <v>15.7983751227024</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.55835885529869</v>
+        <v>-9.063736949435521</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,39 +929,39 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.3258657490946</v>
+        <v>0.874802717005729</v>
       </c>
       <c r="G6" t="n">
-        <v>0.162790697674419</v>
+        <v>0.125</v>
       </c>
       <c r="H6" t="n">
-        <v>0.883720930232558</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09391090362777151</v>
+        <v>0.06596746661500071</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0010504682553439</v>
+        <v>-0.0080542848404956</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01101811117033</v>
+        <v>-0.0222131882391137</v>
       </c>
       <c r="M6" t="n">
-        <v>0.021351569442023</v>
+        <v>0.0010122999042929</v>
       </c>
       <c r="N6" t="n">
-        <v>1.11857964811803</v>
+        <v>-12.2094802995877</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1020,15 +1020,15 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.306677177977373</v>
+        <v>0.496851164307603</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0355</v>
+        <v>0.046</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0032136936850211</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0035965883770397</v>
+        <v>-0.0052500409430977</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0074588458907967</v>
+        <v>0.0068996233034953</v>
       </c>
       <c r="N7" t="n">
-        <v>9.05265826766529</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.337392249324502</v>
+        <v>0.177977679120816</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.025</v>
+        <v>1.045</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0118919948600093</v>
+        <v>0.043508429747759</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0390688876136125</v>
+        <v>-0.0337935589065178</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0979244571766574</v>
+        <v>0.09832513531056369</v>
       </c>
       <c r="N8" t="n">
-        <v>1.16019462048871</v>
+        <v>4.16348610026402</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.786694585682625</v>
+        <v>0.017305278757854</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.82</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>7.845</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0279982578397213</v>
+        <v>-0.0416831349764786</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0284610389610391</v>
+        <v>-0.0901543816257501</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07104233548507111</v>
+        <v>-0.0138288511829276</v>
       </c>
       <c r="N9" t="n">
-        <v>0.356893025362923</v>
+        <v>-0.531333779177548</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.13765057400565</v>
+        <v>0.400615449971265</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.235</v>
+        <v>1.2395</v>
       </c>
       <c r="K10" t="n">
-        <v>0.042683565249114</v>
+        <v>0.0115394917582418</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.025422647978554</v>
+        <v>-0.0878154248437204</v>
       </c>
       <c r="M10" t="n">
-        <v>0.169997179990174</v>
+        <v>0.0514545137239258</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45615912948292</v>
+        <v>0.930979569039271</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.974351809721593</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.192307692307692</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.461538461538462</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1.475</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.04648143041</v>
+        <v>0.0012482911825017</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.86503468994409</v>
+        <v>-0.0953145489655257</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0426308611835934</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.8827143470001</v>
+        <v>0.084629910678082</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.177977679120816</v>
+        <v>0.999467574752561</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.961538461538462</v>
+        <v>0.9807692307692309</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.515</v>
+        <v>0.2815</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0342839972527473</v>
+        <v>-0.03617369155526</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0489597517975491</v>
+        <v>-0.0584916892979258</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08830567526453451</v>
+        <v>-0.0142466772588618</v>
       </c>
       <c r="N12" t="n">
-        <v>2.26297011569289</v>
+        <v>-12.8503344778899</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.13765057400565</v>
+        <v>0.104056341535968</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2955</v>
+        <v>1.865</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0166717054840064</v>
+        <v>0.24507503335172</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0061735748716007</v>
+        <v>-0.128614635093548</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06267406605456401</v>
+        <v>0.549963909934186</v>
       </c>
       <c r="N13" t="n">
-        <v>5.6418631079548</v>
+        <v>13.1407524585372</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.721541501120307</v>
+        <v>0.010430827198169</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.942307692307692</v>
+        <v>0.842857142857143</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.73</v>
+        <v>1.035</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.13103176510989</v>
+        <v>-0.0505730769230769</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.87663846640955</v>
+        <v>-0.116151634768225</v>
       </c>
       <c r="M14" t="n">
-        <v>0.173591431251175</v>
+        <v>-0.0172746652776473</v>
       </c>
       <c r="N14" t="n">
-        <v>-7.57409046877978</v>
+        <v>-4.88628762541806</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.021451878097863</v>
+        <v>0.901003652205569</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0126582278481013</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.835443037974684</v>
+        <v>0.8738738738738741</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.2</v>
+        <v>9.91</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0422514075506325</v>
+        <v>0.027164562971823</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0818815906465971</v>
+        <v>-0.015432436648544</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0097925407690399</v>
+        <v>0.0548857137067607</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.52095062921938</v>
+        <v>0.274112643509818</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.865133006625236</v>
+        <v>0.0241077436879971</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.892857142857143</v>
+        <v>0.9099099099099101</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.9</v>
+        <v>0.189</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0241757858315739</v>
+        <v>0.0063353756006355</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0168223278098553</v>
+        <v>0.0010291825817212</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0540362297804075</v>
+        <v>0.0125238273184614</v>
       </c>
       <c r="N16" t="n">
-        <v>0.244199856884585</v>
+        <v>3.35205058234686</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0025245544487304</v>
+        <v>0.710765315644761</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.901785714285714</v>
+        <v>0.774774774774775</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.194</v>
+        <v>470</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0103775492284871</v>
+        <v>-5.92938311688312</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0046498605710528</v>
+        <v>-25.8336284831278</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0172863268222369</v>
+        <v>12.4788189582315</v>
       </c>
       <c r="N17" t="n">
-        <v>5.34925217963251</v>
+        <v>-1.26157087593258</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.441023206923337</v>
+        <v>0.212667456211903</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="H18" t="n">
-        <v>0.75</v>
+        <v>0.813725490196078</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>480</v>
+        <v>0.0775762943724588</v>
       </c>
       <c r="K18" t="n">
-        <v>0.685423186870056</v>
+        <v>0.0001805529130195</v>
       </c>
       <c r="L18" t="n">
-        <v>-16.5858366034206</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>20.1019953430573</v>
+        <v>0.0038774706993346</v>
       </c>
       <c r="N18" t="n">
-        <v>0.142796497264595</v>
+        <v>0.232742378944584</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.143595465142338</v>
+        <v>0.236649789145406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.223300970873786</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.796116504854369</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09647399482544319</v>
+        <v>0.04</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002850985778368</v>
+        <v>0.0007912491073748</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003048023990554</v>
+        <v>0.0024155114535243</v>
       </c>
       <c r="N19" t="n">
-        <v>0.295518578195844</v>
+        <v>1.97812276843721</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.314768474435714</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6875</v>
+        <v>0.8738738738738741</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0365</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004091905804819</v>
+        <v>6.24145591251063e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.0184184584892449</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0018331992584735</v>
+        <v>0.0164014477764382</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1210700835123</v>
+        <v>0.0056740508295551</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.410411857392441</v>
+        <v>0.9939965345544099</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.875</v>
+        <v>0.587155963302752</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.0932</v>
+        <v>7.74</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0041535181236673</v>
+        <v>0.0214033877940595</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0151484348485961</v>
+        <v>0.0074277022270473</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0208397555939415</v>
+        <v>0.0348851438519723</v>
       </c>
       <c r="N21" t="n">
-        <v>0.379941284638436</v>
+        <v>0.276529558062784</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999616168908252</v>
+        <v>0.634358096908655</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5909090909090911</v>
+        <v>0.927927927927928</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.725</v>
+        <v>1.3009</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0284241245136186</v>
+        <v>-0.0034206662842387</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0150289147692182</v>
+        <v>-0.0249435157819274</v>
       </c>
       <c r="M22" t="n">
-        <v>0.039983579638752</v>
+        <v>0.0199227740552043</v>
       </c>
       <c r="N22" t="n">
-        <v>0.367949831891503</v>
+        <v>-0.262946136078006</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.477423388068094</v>
+        <v>0.788777254371119</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.928571428571429</v>
+        <v>0.8738738738738741</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.3355</v>
+        <v>1.61</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0026487910206232</v>
+        <v>-0.0119952499790286</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0227248850336945</v>
+        <v>-0.0342051438032807</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0256892730078531</v>
+        <v>0.0100230570336968</v>
       </c>
       <c r="N23" t="n">
-        <v>0.198337028874819</v>
+        <v>-0.745046582548361</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.967775597781565</v>
+        <v>0.0087902314726056</v>
       </c>
       <c r="G24" t="n">
-        <v>0.107142857142857</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.375</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>0.243</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.193649370071722</v>
+        <v>0.0092389551238235</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.333945388452713</v>
+        <v>0.002187128188993</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0148099625124636</v>
       </c>
       <c r="N24" t="n">
-        <v>-4.84123425179305</v>
+        <v>3.8020391456064</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.751575817093342</v>
+        <v>0.409455628997397</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.892857142857143</v>
+        <v>0.936936936936937</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.702</v>
+        <v>2.16</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0135431642402184</v>
+        <v>0.0164160500077894</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0346004544504503</v>
+        <v>-0.0750261232429089</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0167454478144052</v>
+        <v>0.127025443540145</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.795720578156192</v>
+        <v>0.760002315175434</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.003025187909929</v>
+        <v>0.010846982494523</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="H26" t="n">
-        <v>0.919642857142857</v>
+        <v>0.728</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2655</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0113920484476971</v>
+        <v>-0.0248469387755102</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0051656548791857</v>
+        <v>-0.0501717032967032</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0173857469061224</v>
+        <v>-0.007110313806004</v>
       </c>
       <c r="N26" t="n">
-        <v>4.29079037578046</v>
+        <v>-2.25881261595548</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.92154420367986</v>
+        <v>0.027070769762097</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.928571428571429</v>
+        <v>0.862275449101796</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>10.29</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0746391315519014</v>
+        <v>-0.0335944227005871</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.162485761458501</v>
+        <v>-0.0707394057655516</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0069323882442761</v>
+        <v>-0.008620252728926</v>
       </c>
       <c r="N27" t="n">
-        <v>-3.1360979643656</v>
+        <v>-0.326476411084423</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.033897126663138</v>
+        <v>0.0016636323613387</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0081967213114754</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.729508196721312</v>
+        <v>0.81547619047619</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.2</v>
+        <v>0.1765</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0203270007661768</v>
+        <v>0.0049228417490371</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0501717032967032</v>
+        <v>0.0020035693059366</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.002001975977397</v>
+        <v>0.008738038277511901</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.69391673051473</v>
+        <v>2.78914546687655</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.372551565835121</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0059523809523809</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.031124693147859</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>10.27</v>
+        <v>461</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0408798867373032</v>
+        <v>1.91305647170654</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.08001506281112181</v>
+        <v>-8.32406582705087</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.008895695645481301</v>
+        <v>12.2545528243326</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.398051477481043</v>
+        <v>0.414979711866928</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0001114748104824</v>
+        <v>0.999996512281134</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.144654088050314</v>
       </c>
       <c r="H30" t="n">
-        <v>0.828025477707006</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.187</v>
+        <v>0.120365978468061</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0079735368607383</v>
+        <v>-0.008621124020400901</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004250058144125</v>
+        <v>-0.0123736553905685</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0117999733660389</v>
+        <v>-0.0040547610372445</v>
       </c>
       <c r="N30" t="n">
-        <v>4.26392345494029</v>
+        <v>-7.16242590317047</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.147460257205688</v>
+        <v>0.245666378370938</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0063694267515923</v>
+        <v>0.0126582278481013</v>
       </c>
       <c r="H31" t="n">
-        <v>0.751592356687898</v>
+        <v>0.626582278481013</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>461</v>
+        <v>0.037</v>
       </c>
       <c r="K31" t="n">
-        <v>6.79308348247184</v>
+        <v>0.0004435343516656</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.13876745515599</v>
+        <v>-0.0006518542245222</v>
       </c>
       <c r="M31" t="n">
-        <v>18.4148553098343</v>
+        <v>0.0013821318420724</v>
       </c>
       <c r="N31" t="n">
-        <v>1.47355390075311</v>
+        <v>1.19874149098824</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.99998743687126</v>
+        <v>0.159551043678831</v>
       </c>
       <c r="G32" t="n">
-        <v>0.155405405405405</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.858108108108108</v>
+        <v>0.848101265822785</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.127480196926304</v>
+        <v>1.025</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0079815378678709</v>
+        <v>0.0062061675209748</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0118909706811257</v>
+        <v>-0.0042173464878002</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0037223317227701</v>
+        <v>0.0162680263750745</v>
       </c>
       <c r="N32" t="n">
-        <v>-6.26100214803168</v>
+        <v>0.605479758143887</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.264030022575959</v>
+        <v>0.075578080088022</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0136054421768707</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.639455782312925</v>
+        <v>0.536144578313253</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.036</v>
+        <v>7.745</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0004276932084309</v>
+        <v>-0.009970427661510401</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0006823997792649</v>
+        <v>-0.0200051511021363</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0012482911825017</v>
+        <v>0.0014257693506497</v>
       </c>
       <c r="N33" t="n">
-        <v>1.18803669008587</v>
+        <v>-0.128733733524989</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.264356148542886</v>
+        <v>0.895347374021727</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.850340136054422</v>
+        <v>0.93452380952381</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.01</v>
+        <v>1.3455</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0046528662420382</v>
+        <v>-0.0106875629297871</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0075067479552904</v>
+        <v>-0.0231862411175885</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0168527163110915</v>
+        <v>0.0031192916457767</v>
       </c>
       <c r="N34" t="n">
-        <v>0.460679825944378</v>
+        <v>-0.7943190583268041</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.108690152148666</v>
+        <v>0.996218295837676</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.561290322580645</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.75</v>
+        <v>1.704</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.009981987577639699</v>
+        <v>-0.022761932886664</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0210354058575439</v>
+        <v>-0.0334946994472315</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0020832460871756</v>
+        <v>-0.008042689969345099</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.12879983971148</v>
+        <v>-1.33579418348967</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8662156214007291</v>
+        <v>0.0074915265438227</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.936305732484076</v>
+        <v>0.886904761904762</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.365</v>
+        <v>0.235</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0110926333609073</v>
+        <v>0.0049369185788575</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0250801786298436</v>
+        <v>0.0014406851639367</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0056217883525105</v>
+        <v>0.0081364281417201</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.812647132667198</v>
+        <v>2.10081641653512</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.991644006644247</v>
+        <v>0.996183548825866</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7898089171974521</v>
+        <v>0.886904761904762</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.711</v>
+        <v>2.71</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0220192278270726</v>
+        <v>-0.08526899978741501</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0343118162438541</v>
+        <v>-0.148072189802831</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0074878111146298</v>
+        <v>-0.0404351675536919</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.28692155622867</v>
+        <v>-3.14645755673118</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0005291360473521</v>
+        <v>0.336747810956146</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.012987012987013</v>
       </c>
       <c r="H38" t="n">
-        <v>0.898089171974522</v>
+        <v>0.668831168831169</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0.249</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0073755892532705</v>
+        <v>-0.0020615626511852</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0031835736885883</v>
+        <v>-0.0178326268922455</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0113734106162517</v>
+        <v>0.0134559374056628</v>
       </c>
       <c r="N38" t="n">
-        <v>2.96208403745805</v>
+        <v>-0.206156265118529</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.999191452226789</v>
+        <v>0.0001387987613653</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.89171974522293</v>
+        <v>0.807106598984772</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.73</v>
+        <v>0.175</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.10602601762776</v>
+        <v>0.0045020543254964</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.179791340167633</v>
+        <v>0.0022776057614051</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.055160562315098</v>
+        <v>0.0070029479937679</v>
       </c>
       <c r="N39" t="n">
-        <v>-3.88373690944174</v>
+        <v>2.57260247171227</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4004,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.633254779748298</v>
+        <v>0.931406981358333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0127388535031847</v>
+        <v>0.0149253731343284</v>
       </c>
       <c r="H40" t="n">
-        <v>0.681528662420382</v>
+        <v>0.7114427860696519</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>470</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0033356164383561</v>
+        <v>-6.29743251317632</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0112571503154978</v>
+        <v>-16.6711350436408</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0200972976052299</v>
+        <v>2.34880655469926</v>
       </c>
       <c r="N40" t="n">
-        <v>0.311739854051978</v>
+        <v>-1.33987925812262</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.23216970161517e-06</v>
+        <v>0.999984017818553</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.138297872340426</v>
       </c>
       <c r="H41" t="n">
-        <v>0.802083333333333</v>
+        <v>0.872340425531915</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1825</v>
+        <v>0.120882455742628</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0067638888888888</v>
+        <v>-0.0048833189935256</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0043238645353061</v>
+        <v>-0.0085858015171561</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0093762586750203</v>
+        <v>-0.0027357449596503</v>
       </c>
       <c r="N41" t="n">
-        <v>3.70624048706241</v>
+        <v>-4.03972517229694</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4186,14 +4186,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.825275267318561</v>
+        <v>0.323705322771183</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0204081632653061</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.693877551020408</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>479.5</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.27991845944473</v>
+        <v>0.0020720510216994</v>
       </c>
       <c r="L42" t="n">
-        <v>-12.0022645966252</v>
+        <v>-0.0058418127800988</v>
       </c>
       <c r="M42" t="n">
-        <v>7.19954220010903</v>
+        <v>0.0091289802077103</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.266927728768453</v>
+        <v>0.207205102169949</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4288,35 +4288,35 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.99983665788706</v>
+        <v>0.729036223555938</v>
       </c>
       <c r="G43" t="n">
-        <v>0.14207650273224</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.863387978142076</v>
+        <v>0.908629441624365</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.122101214525486</v>
+        <v>1.316</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0032298465310179</v>
+        <v>-0.0031673893199452</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0059409809659258</v>
+        <v>-0.0149218154455378</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0018658482414556</v>
+        <v>0.007268979935976</v>
       </c>
       <c r="N43" t="n">
-        <v>-2.64522064221056</v>
+        <v>-0.240683079023195</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.175062146955285</v>
+        <v>0.999976821655981</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.818681318681319</v>
+        <v>0.875621890547264</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.974</v>
+        <v>2.92</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0048909749412685</v>
+        <v>-0.124031030444965</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0040676848718322</v>
+        <v>-0.202105048741534</v>
       </c>
       <c r="M44" t="n">
-        <v>0.012193261730757</v>
+        <v>-0.0689120218280731</v>
       </c>
       <c r="N44" t="n">
-        <v>0.502153484729834</v>
+        <v>-4.24763802893715</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4459,46 +4459,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.34971562165028</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.901041666666667</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.2905</v>
+        <v>0.469</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0029911282984531</v>
+        <v>0.0297634529506462</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0080661722552851</v>
+        <v>-0.0304643449240386</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0139696847519918</v>
+        <v>0.0588175855385793</v>
       </c>
       <c r="N45" t="n">
-        <v>0.231780573301289</v>
+        <v>6.34615201506315</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4536,11 +4536,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4550,46 +4546,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.999997970229109</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.872448979591837</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.025</v>
+        <v>106.15</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.145436646912502</v>
+        <v>1.71122037241534</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.217024016513833</v>
+        <v>-6.93805697242635</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.07636306643116431</v>
+        <v>7.24604625177176</v>
       </c>
       <c r="N46" t="n">
-        <v>-4.8078230384298</v>
+        <v>1.61207760001445</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4594,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4627,11 +4623,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4641,7 +4633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4656,7 +4648,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.889664319040077</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4668,19 +4660,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.45</v>
+        <v>6.34</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0312085073195547</v>
+        <v>0.383005110908393</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0304643449240386</v>
+        <v>-1.21363152199399</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0733615949870445</v>
+        <v>1.21717135398282</v>
       </c>
       <c r="N47" t="n">
-        <v>6.93522384878992</v>
+        <v>6.04109007741944</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4689,7 +4681,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4728,11 +4720,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4743,7 +4735,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.889664319040077</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4755,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>96</v>
+        <v>0.4525</v>
       </c>
       <c r="K48" t="n">
-        <v>3.434122510594</v>
+        <v>0.0104221789883269</v>
       </c>
       <c r="L48" t="n">
-        <v>-4.87340280041137</v>
+        <v>-0.009645125641285101</v>
       </c>
       <c r="M48" t="n">
-        <v>8.832905746011219</v>
+        <v>0.0338626143990591</v>
       </c>
       <c r="N48" t="n">
-        <v>3.57721094853542</v>
+        <v>2.30324397532085</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4815,11 +4807,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4830,31 +4822,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.59675202974633</v>
+        <v>0.6408261208260559</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>6.06</v>
+        <v>98</v>
       </c>
       <c r="K49" t="n">
-        <v>0.672468825181208</v>
+        <v>0.904051490514904</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.21363152199399</v>
+        <v>-0.746905153638871</v>
       </c>
       <c r="M49" t="n">
-        <v>1.55034945720429</v>
+        <v>2.91927101484121</v>
       </c>
       <c r="N49" t="n">
-        <v>11.0968453000199</v>
+        <v>0.922501520933575</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4902,7 +4894,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4917,31 +4909,31 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.464222020750296</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4525</v>
+        <v>4.792</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0007337284049819</v>
+        <v>0.340699588477366</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0199226206970029</v>
+        <v>-0.116034100915673</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0215548975598671</v>
+        <v>0.650101408728685</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.162149923752911</v>
+        <v>7.10975768942751</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4950,7 +4942,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4989,46 +4981,46 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.5</v>
+        <v>0.824347466908378</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>98</v>
+        <v>0.4385</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.007895655788817299</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.64131360445137</v>
+        <v>-0.0028722382717061</v>
       </c>
       <c r="M51" t="n">
-        <v>2.59158912692846</v>
+        <v>0.0209252592679322</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1.80060565309402</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5037,7 +5029,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5076,11 +5068,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5091,31 +5083,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.639742606431872</v>
+        <v>0.6900838585899191</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.792</v>
+        <v>97</v>
       </c>
       <c r="K52" t="n">
-        <v>0.113740755157649</v>
+        <v>0.522570157855174</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.332664554925354</v>
+        <v>-0.632629221576771</v>
       </c>
       <c r="M52" t="n">
-        <v>0.462426350896793</v>
+        <v>1.27074064575372</v>
       </c>
       <c r="N52" t="n">
-        <v>2.37355499076897</v>
+        <v>0.538732121500179</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5124,7 +5116,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5163,7 +5155,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5174,35 +5166,35 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.5</v>
+        <v>0.905556261230231</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>97</v>
+        <v>4.66</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>0.173884991230268</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.815996427429007</v>
+        <v>-0.0497362018120533</v>
       </c>
       <c r="M53" t="n">
-        <v>1.00896705619286</v>
+        <v>0.301052772699286</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>3.73143758004867</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5211,7 +5203,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5265,13 +5257,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.809986275336257</v>
+        <v>0.903169582098212</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -5280,16 +5272,16 @@
         <v>96.5</v>
       </c>
       <c r="K54" t="n">
-        <v>0.589111151810527</v>
+        <v>0.695240934434748</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.154768876632409</v>
+        <v>-0.103906311588563</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06223783108576</v>
+        <v>1.22210044528406</v>
       </c>
       <c r="N54" t="n">
-        <v>0.610477877523862</v>
+        <v>0.720456926875387</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5298,7 +5290,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q54" t="n">

--- a/trend_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
+++ b/trend_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -145,40 +145,49 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -657,31 +666,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.397445358956716</v>
+        <v>0.059599328824899</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0.95</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="K2">
-        <v>-0.0211571683673469</v>
+        <v>-0.097515099789916</v>
       </c>
       <c r="L2">
-        <v>-0.213686520848277</v>
+        <v>-0.356008273023015</v>
       </c>
       <c r="M2">
-        <v>0.097566120076529</v>
+        <v>0.0016517559454981</v>
       </c>
       <c r="N2">
-        <v>-5.71815361279647</v>
+        <v>-37.5058076115061</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -696,19 +705,19 @@
         <v>5540903</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,31 +737,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.46656076005735</v>
+        <v>0.8479639830415659</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.846153846153846</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.960000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="K3">
-        <v>-0.0300310051790316</v>
+        <v>0.0524885494680482</v>
       </c>
       <c r="L3">
-        <v>-0.159849236334857</v>
+        <v>-0.0341465377316194</v>
       </c>
       <c r="M3">
-        <v>0.06835369631495231</v>
+        <v>0.133049210782092</v>
       </c>
       <c r="N3">
-        <v>-0.301516116255337</v>
+        <v>0.517638554911718</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -767,19 +776,19 @@
         <v>5540903</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,31 +808,31 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.999920417515911</v>
+        <v>0.999972336607896</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9807692307692309</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.233</v>
+        <v>0.213</v>
       </c>
       <c r="K4">
-        <v>-0.0275108173076923</v>
+        <v>-0.0391339285714286</v>
       </c>
       <c r="L4">
-        <v>-0.052381518592277</v>
+        <v>-0.0915519001500063</v>
       </c>
       <c r="M4">
-        <v>-0.0193064197600985</v>
+        <v>-0.022474937777599</v>
       </c>
       <c r="N4">
-        <v>-11.8072177286233</v>
+        <v>-18.3727364185111</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -838,19 +847,19 @@
         <v>5540903</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,31 +879,31 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.911418551238856</v>
+        <v>0.945656231739065</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H5">
-        <v>0.923076923076923</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>465.5</v>
+        <v>475</v>
       </c>
       <c r="K5">
-        <v>-42.1916954996223</v>
+        <v>-59.4943298969073</v>
       </c>
       <c r="L5">
-        <v>-111.505555285323</v>
+        <v>-127.28076569296</v>
       </c>
       <c r="M5">
-        <v>15.7983751227024</v>
+        <v>1.37213721534082</v>
       </c>
       <c r="N5">
-        <v>-9.063736949435521</v>
+        <v>-12.5251220835594</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
@@ -909,19 +918,19 @@
         <v>5540903</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,40 +947,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>0.874802717005729</v>
+        <v>0.936587170811454</v>
       </c>
       <c r="G6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06596746661500071</v>
+        <v>0.0582832807074504</v>
       </c>
       <c r="K6">
-        <v>-0.0080542848404956</v>
+        <v>-0.0069589648735821</v>
       </c>
       <c r="L6">
-        <v>-0.0222131882391137</v>
+        <v>-0.0224346024929499</v>
       </c>
       <c r="M6">
-        <v>0.0010122999042929</v>
+        <v>-0.0006502477144424001</v>
       </c>
       <c r="N6">
-        <v>-12.2094802995877</v>
+        <v>-11.9398990398503</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1863602</v>
@@ -980,19 +989,19 @@
         <v>5540903</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,40 +1018,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>0.496851164307603</v>
+        <v>0.979345481217467</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.846153846153846</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0067327188940092</v>
       </c>
       <c r="L7">
-        <v>-0.0052500409430977</v>
+        <v>-0.0127103666362764</v>
       </c>
       <c r="M7">
-        <v>0.0068996233034953</v>
+        <v>-0.0012204141257476</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-14.9615975422427</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1863602</v>
@@ -1051,19 +1060,19 @@
         <v>5540903</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,37 +1092,37 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.177977679120816</v>
+        <v>0.9105206334246499</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.865384615384615</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.045</v>
+        <v>0.894</v>
       </c>
       <c r="K8">
-        <v>0.043508429747759</v>
+        <v>-0.0372942994505494</v>
       </c>
       <c r="L8">
-        <v>-0.0337935589065178</v>
+        <v>-0.0778734320641178</v>
       </c>
       <c r="M8">
-        <v>0.09832513531056369</v>
+        <v>0.013363026316443</v>
       </c>
       <c r="N8">
-        <v>4.16348610026402</v>
+        <v>-4.17162186247757</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1863602</v>
@@ -1122,19 +1131,19 @@
         <v>5540903</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,43 +1157,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.017305278757854</v>
+        <v>0.263734538684934</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.846153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.845</v>
+        <v>7.87</v>
       </c>
       <c r="K9">
-        <v>-0.0416831349764786</v>
+        <v>-0.0185249366018598</v>
       </c>
       <c r="L9">
-        <v>-0.0901543816257501</v>
+        <v>-0.050211215836962</v>
       </c>
       <c r="M9">
-        <v>-0.0138288511829276</v>
+        <v>0.022997726927471</v>
       </c>
       <c r="N9">
-        <v>-0.531333779177548</v>
+        <v>-0.235386742082082</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>1863602</v>
@@ -1193,16 +1202,16 @@
         <v>5540903</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,37 +1231,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.400615449971265</v>
+        <v>0.983600593067227</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.942307692307692</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.2395</v>
+        <v>1.144</v>
       </c>
       <c r="K10">
-        <v>0.0115394917582418</v>
+        <v>-0.0959370222169135</v>
       </c>
       <c r="L10">
-        <v>-0.0878154248437204</v>
+        <v>-0.168247875215633</v>
       </c>
       <c r="M10">
-        <v>0.0514545137239258</v>
+        <v>-0.0104819413074814</v>
       </c>
       <c r="N10">
-        <v>0.930979569039271</v>
+        <v>-8.38610334063929</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1863602</v>
@@ -1261,19 +1270,19 @@
         <v>5540903</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,37 +1302,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.976643504325409</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.923076923076923</v>
+        <v>0.890909090909091</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.475</v>
+        <v>1.39</v>
       </c>
       <c r="K11">
-        <v>0.0012482911825017</v>
+        <v>-0.06877920733510801</v>
       </c>
       <c r="L11">
-        <v>-0.0953145489655257</v>
+        <v>-0.157953924534871</v>
       </c>
       <c r="M11">
-        <v>0.0426308611835934</v>
+        <v>-0.0249658236500342</v>
       </c>
       <c r="N11">
-        <v>0.084629910678082</v>
+        <v>-4.94814441259769</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1863602</v>
@@ -1332,19 +1341,19 @@
         <v>5540903</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,37 +1367,37 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.999467574752561</v>
+        <v>0.995124444039502</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.9807692307692309</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2815</v>
+        <v>0.263</v>
       </c>
       <c r="K12">
-        <v>-0.03617369155526</v>
+        <v>-0.0379480519480518</v>
       </c>
       <c r="L12">
-        <v>-0.0584916892979258</v>
+        <v>-0.0654089549114799</v>
       </c>
       <c r="M12">
-        <v>-0.0142466772588618</v>
+        <v>-0.0146937492418658</v>
       </c>
       <c r="N12">
-        <v>-12.8503344778899</v>
+        <v>-14.428917090514</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -1403,19 +1412,19 @@
         <v>5540903</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,37 +1444,37 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.104056341535968</v>
+        <v>0.0109340440950654</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.942307692307692</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.865</v>
+        <v>1.86</v>
       </c>
       <c r="K13">
-        <v>0.24507503335172</v>
+        <v>0.328009343251089</v>
       </c>
       <c r="L13">
-        <v>-0.128614635093548</v>
+        <v>0.068193810497035</v>
       </c>
       <c r="M13">
-        <v>0.549963909934186</v>
+        <v>0.649136754403148</v>
       </c>
       <c r="N13">
-        <v>13.1407524585372</v>
+        <v>17.6349109274779</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1863602</v>
@@ -1474,19 +1483,19 @@
         <v>5540903</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,37 +1509,37 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.010430827198169</v>
+        <v>0.008396135751772</v>
       </c>
       <c r="G14">
-        <v>0.0142857142857143</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H14">
-        <v>0.842857142857143</v>
+        <v>0.8412698412698409</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.035</v>
+        <v>0.6</v>
       </c>
       <c r="K14">
-        <v>-0.0505730769230769</v>
+        <v>-0.0638603411513859</v>
       </c>
       <c r="L14">
-        <v>-0.116151634768225</v>
+        <v>-0.134597817048955</v>
       </c>
       <c r="M14">
-        <v>-0.0172746652776473</v>
+        <v>-0.0137533038972657</v>
       </c>
       <c r="N14">
-        <v>-4.88628762541806</v>
+        <v>-10.6433901918977</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
@@ -1545,19 +1554,19 @@
         <v>5540903</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,31 +1586,31 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.901003652205569</v>
+        <v>0.9224337630655201</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.8738738738738741</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.91</v>
+        <v>10.1</v>
       </c>
       <c r="K15">
-        <v>0.027164562971823</v>
+        <v>0.0399180327868852</v>
       </c>
       <c r="L15">
-        <v>-0.015432436648544</v>
+        <v>-0.0100080754342282</v>
       </c>
       <c r="M15">
-        <v>0.0548857137067607</v>
+        <v>0.0791682517905784</v>
       </c>
       <c r="N15">
-        <v>0.274112643509818</v>
+        <v>0.395228047394903</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
@@ -1616,19 +1625,19 @@
         <v>5540903</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,37 +1657,37 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.0241077436879971</v>
+        <v>0.0910963540061742</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.9099099099099101</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.189</v>
+        <v>0.1895</v>
       </c>
       <c r="K16">
-        <v>0.0063353756006355</v>
+        <v>0.0036558234758871</v>
       </c>
       <c r="L16">
-        <v>0.0010291825817212</v>
+        <v>-0.001938356642526</v>
       </c>
       <c r="M16">
-        <v>0.0125238273184614</v>
+        <v>0.0089816543045451</v>
       </c>
       <c r="N16">
-        <v>3.35205058234686</v>
+        <v>1.92919444637845</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q16">
         <v>1863602</v>
@@ -1687,19 +1696,19 @@
         <v>5540903</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,37 +1728,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.710765315644761</v>
+        <v>0.643056215475357</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0091743119266055</v>
       </c>
       <c r="H17">
-        <v>0.774774774774775</v>
+        <v>0.779816513761468</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>470</v>
       </c>
       <c r="K17">
-        <v>-5.92938311688312</v>
+        <v>-3.99145880419149</v>
       </c>
       <c r="L17">
-        <v>-25.8336284831278</v>
+        <v>-22.6959480943258</v>
       </c>
       <c r="M17">
-        <v>12.4788189582315</v>
+        <v>14.9124911363609</v>
       </c>
       <c r="N17">
-        <v>-1.26157087593258</v>
+        <v>-0.849246554083297</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q17">
         <v>1863602</v>
@@ -1758,19 +1767,19 @@
         <v>5540903</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,40 +1796,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.212667456211903</v>
+        <v>0.867204504043487</v>
       </c>
       <c r="G18">
-        <v>0.205882352941176</v>
+        <v>0.217821782178218</v>
       </c>
       <c r="H18">
-        <v>0.813725490196078</v>
+        <v>0.801980198019802</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0.0775762943724588</v>
+        <v>0.07634124303345501</v>
       </c>
       <c r="K18">
-        <v>0.0001805529130195</v>
+        <v>-0.0009472181760352</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0060082813230784</v>
       </c>
       <c r="M18">
-        <v>0.0038774706993346</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.232742378944584</v>
+        <v>-1.2407686047503</v>
       </c>
       <c r="O18" t="s">
         <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q18">
         <v>1863602</v>
@@ -1829,19 +1838,19 @@
         <v>5540903</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,37 +1870,37 @@
         <v>39</v>
       </c>
       <c r="F19">
-        <v>0.236649789145406</v>
+        <v>0.658178943748606</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.702702702702703</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.0345</v>
       </c>
       <c r="K19">
-        <v>0.0007912491073748</v>
+        <v>-0.0002859099804305</v>
       </c>
       <c r="L19">
-        <v>-0.001003434065934</v>
+        <v>-0.0018523792747508</v>
       </c>
       <c r="M19">
-        <v>0.0024155114535243</v>
+        <v>0.0010118548714033</v>
       </c>
       <c r="N19">
-        <v>1.97812276843721</v>
+        <v>-0.828724580958052</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <v>1863602</v>
@@ -1900,19 +1909,19 @@
         <v>5540903</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,37 +1941,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.997775701926563</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.8738738738738741</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.1</v>
+        <v>1.095</v>
       </c>
       <c r="K20">
-        <v>6.24145591251063E-05</v>
+        <v>-0.0309288760280231</v>
       </c>
       <c r="L20">
-        <v>-0.0184184584892449</v>
+        <v>-0.0456964363256567</v>
       </c>
       <c r="M20">
-        <v>0.0164014477764382</v>
+        <v>-0.0127545827957699</v>
       </c>
       <c r="N20">
-        <v>0.0056740508295551</v>
+        <v>-2.82455488840394</v>
       </c>
       <c r="O20" t="s">
         <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q20">
         <v>1863602</v>
@@ -1971,19 +1980,19 @@
         <v>5540903</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,37 +2012,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.9939965345544099</v>
+        <v>0.997172646186603</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.587155963302752</v>
+        <v>0.601851851851852</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.74</v>
+        <v>7.745</v>
       </c>
       <c r="K21">
-        <v>0.0214033877940595</v>
+        <v>0.0237777292504459</v>
       </c>
       <c r="L21">
-        <v>0.0074277022270473</v>
+        <v>0.0096034180543382</v>
       </c>
       <c r="M21">
-        <v>0.0348851438519723</v>
+        <v>0.037398191672739</v>
       </c>
       <c r="N21">
-        <v>0.276529558062784</v>
+        <v>0.307007479024479</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q21">
         <v>1863602</v>
@@ -2042,16 +2051,16 @@
         <v>5540903</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2080,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.634358096908655</v>
+        <v>0.999360022576503</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.927927927927928</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.3009</v>
+        <v>1.28</v>
       </c>
       <c r="K22">
-        <v>-0.0034206662842387</v>
+        <v>-0.0450102692834322</v>
       </c>
       <c r="L22">
-        <v>-0.0249435157819274</v>
+        <v>-0.0747418614811225</v>
       </c>
       <c r="M22">
-        <v>0.0199227740552043</v>
+        <v>-0.0151996449390526</v>
       </c>
       <c r="N22">
-        <v>-0.262946136078006</v>
+        <v>-3.51642728776814</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q22">
         <v>1863602</v>
@@ -2110,19 +2119,19 @@
         <v>5540903</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,37 +2151,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.788777254371119</v>
+        <v>0.999431990804437</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.8738738738738741</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.61</v>
+        <v>1.605</v>
       </c>
       <c r="K23">
-        <v>-0.0119952499790286</v>
+        <v>-0.0461867737525632</v>
       </c>
       <c r="L23">
-        <v>-0.0342051438032807</v>
+        <v>-0.0716932415325114</v>
       </c>
       <c r="M23">
-        <v>0.0100230570336968</v>
+        <v>-0.0249658236500342</v>
       </c>
       <c r="N23">
-        <v>-0.745046582548361</v>
+        <v>-2.87768060763634</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1863602</v>
@@ -2181,19 +2190,19 @@
         <v>5540903</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,37 +2222,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0087902314726056</v>
+        <v>0.135224727268241</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.918918918918919</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.243</v>
+        <v>0.253</v>
       </c>
       <c r="K24">
-        <v>0.0092389551238235</v>
+        <v>0.0051678457325422</v>
       </c>
       <c r="L24">
-        <v>0.002187128188993</v>
+        <v>-0.002192933999151</v>
       </c>
       <c r="M24">
-        <v>0.0148099625124636</v>
+        <v>0.0122226455023164</v>
       </c>
       <c r="N24">
-        <v>3.8020391456064</v>
+        <v>2.04262677175582</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q24">
         <v>1863602</v>
@@ -2252,19 +2261,19 @@
         <v>5540903</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,37 +2293,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.409455628997397</v>
+        <v>0.280787656571096</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.936936936936937</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.16</v>
+        <v>2.005</v>
       </c>
       <c r="K25">
-        <v>0.0164160500077894</v>
+        <v>0.0336635944700461</v>
       </c>
       <c r="L25">
-        <v>-0.0750261232429089</v>
+        <v>-0.0539622935418105</v>
       </c>
       <c r="M25">
-        <v>0.127025443540145</v>
+        <v>0.126743627828254</v>
       </c>
       <c r="N25">
-        <v>0.760002315175434</v>
+        <v>1.67898226783272</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Q25">
         <v>1863602</v>
@@ -2323,19 +2332,19 @@
         <v>5540903</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,37 +2364,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.010846982494523</v>
+        <v>0.0137564655176799</v>
       </c>
       <c r="G26">
-        <v>0.008</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H26">
-        <v>0.728</v>
+        <v>0.752136752136752</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>-0.0248469387755102</v>
+        <v>-0.0303486589615432</v>
       </c>
       <c r="L26">
-        <v>-0.0501717032967032</v>
+        <v>-0.0508905641713327</v>
       </c>
       <c r="M26">
-        <v>-0.007110313806004</v>
+        <v>-0.0083344238796646</v>
       </c>
       <c r="N26">
-        <v>-2.25881261595548</v>
+        <v>-3.03486589615432</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q26">
         <v>1863602</v>
@@ -2394,19 +2403,19 @@
         <v>5540903</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,13 +2435,13 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.027070769762097</v>
+        <v>0.096995464616807</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.862275449101796</v>
+        <v>0.844311377245509</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2441,22 +2450,22 @@
         <v>10.29</v>
       </c>
       <c r="K27">
-        <v>-0.0335944227005871</v>
+        <v>-0.022070426210749</v>
       </c>
       <c r="L27">
-        <v>-0.0707394057655516</v>
+        <v>-0.053755854749373</v>
       </c>
       <c r="M27">
-        <v>-0.008620252728926</v>
+        <v>0.0029825290919115</v>
       </c>
       <c r="N27">
-        <v>-0.326476411084423</v>
+        <v>-0.21448421973517</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q27">
         <v>1863602</v>
@@ -2465,19 +2474,19 @@
         <v>5540903</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,37 +2506,37 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.0016636323613387</v>
+        <v>0.0027770406765637</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.81547619047619</v>
+        <v>0.820359281437126</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.1765</v>
+        <v>0.168</v>
       </c>
       <c r="K28">
-        <v>0.0049228417490371</v>
+        <v>0.0048894707821372</v>
       </c>
       <c r="L28">
-        <v>0.0020035693059366</v>
+        <v>0.002001084648146</v>
       </c>
       <c r="M28">
-        <v>0.008738038277511901</v>
+        <v>0.0081533318934147</v>
       </c>
       <c r="N28">
-        <v>2.78914546687655</v>
+        <v>2.91039927508169</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1863602</v>
@@ -2536,19 +2545,19 @@
         <v>5540903</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,40 +2574,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.372551565835121</v>
+        <v>0.525610512679049</v>
       </c>
       <c r="G29">
-        <v>0.0059523809523809</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="H29">
-        <v>0.761904761904762</v>
+        <v>0.77710843373494</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K29">
-        <v>1.91305647170654</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-8.32406582705087</v>
+        <v>-11.8370311653366</v>
       </c>
       <c r="M29">
-        <v>12.2545528243326</v>
+        <v>9.98643308857223</v>
       </c>
       <c r="N29">
-        <v>0.414979711866928</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1863602</v>
@@ -2607,19 +2616,19 @@
         <v>5540903</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,31 +2648,31 @@
         <v>39</v>
       </c>
       <c r="F30">
-        <v>0.999996512281134</v>
+        <v>0.999983774738578</v>
       </c>
       <c r="G30">
-        <v>0.144654088050314</v>
+        <v>0.177215189873418</v>
       </c>
       <c r="H30">
-        <v>0.867924528301887</v>
+        <v>0.835443037974684</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
-        <v>0.120365978468061</v>
+        <v>0.103215926576907</v>
       </c>
       <c r="K30">
-        <v>-0.008621124020400901</v>
+        <v>-0.0060931778520419</v>
       </c>
       <c r="L30">
-        <v>-0.0123736553905685</v>
+        <v>-0.0104162935441437</v>
       </c>
       <c r="M30">
-        <v>-0.0040547610372445</v>
+        <v>-0.0029184565420469</v>
       </c>
       <c r="N30">
-        <v>-7.16242590317047</v>
+        <v>-5.90333105957431</v>
       </c>
       <c r="O30" t="s">
         <v>42</v>
@@ -2678,19 +2687,19 @@
         <v>5540903</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,40 +2716,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.245666378370938</v>
+        <v>0.430721639433017</v>
       </c>
       <c r="G31">
-        <v>0.0126582278481013</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H31">
-        <v>0.626582278481013</v>
+        <v>0.6107784431137721</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="K31">
-        <v>0.0004435343516656</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0006518542245222</v>
+        <v>-0.000748974709501</v>
       </c>
       <c r="M31">
-        <v>0.0013821318420724</v>
+        <v>0.000748974709501</v>
       </c>
       <c r="N31">
-        <v>1.19874149098824</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1863602</v>
@@ -2749,19 +2758,19 @@
         <v>5540903</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,37 +2790,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.159551043678831</v>
+        <v>0.762040034977113</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.848101265822785</v>
+        <v>0.844311377245509</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0.0062061675209748</v>
+        <v>-0.0045029103708791</v>
       </c>
       <c r="L32">
-        <v>-0.0042173464878002</v>
+        <v>-0.0124228933638223</v>
       </c>
       <c r="M32">
-        <v>0.0162680263750745</v>
+        <v>0.0048412075777853</v>
       </c>
       <c r="N32">
-        <v>0.605479758143887</v>
+        <v>-0.450291037087912</v>
       </c>
       <c r="O32" t="s">
         <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1863602</v>
@@ -2820,19 +2829,19 @@
         <v>5540903</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,37 +2861,37 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.075578080088022</v>
+        <v>0.398337934390901</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.536144578313253</v>
+        <v>0.496969696969697</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.745</v>
+        <v>7.75</v>
       </c>
       <c r="K33">
-        <v>-0.009970427661510401</v>
+        <v>-0.0019953564599835</v>
       </c>
       <c r="L33">
-        <v>-0.0200051511021363</v>
+        <v>-0.0115726633184385</v>
       </c>
       <c r="M33">
-        <v>0.0014257693506497</v>
+        <v>0.0074897470950102</v>
       </c>
       <c r="N33">
-        <v>-0.128733733524989</v>
+        <v>-0.0257465349675299</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q33">
         <v>1863602</v>
@@ -2891,16 +2900,16 @@
         <v>5540903</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,31 +2929,31 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.895347374021727</v>
+        <v>0.98558822747094</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.93452380952381</v>
+        <v>0.940119760479042</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.3455</v>
+        <v>1.28</v>
       </c>
       <c r="K34">
-        <v>-0.0106875629297871</v>
+        <v>-0.0145677942409841</v>
       </c>
       <c r="L34">
-        <v>-0.0231862411175885</v>
+        <v>-0.0272512561603752</v>
       </c>
       <c r="M34">
-        <v>0.0031192916457767</v>
+        <v>-0.0030119947719048</v>
       </c>
       <c r="N34">
-        <v>-0.7943190583268041</v>
+        <v>-1.13810892507688</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
@@ -2959,19 +2968,19 @@
         <v>5540903</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,31 +3000,31 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.996218295837676</v>
+        <v>0.999875722739077</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.785714285714286</v>
+        <v>0.766467065868264</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.704</v>
+        <v>1.65</v>
       </c>
       <c r="K35">
-        <v>-0.022761932886664</v>
+        <v>-0.0274091839195943</v>
       </c>
       <c r="L35">
-        <v>-0.0334946994472315</v>
+        <v>-0.0396203818378033</v>
       </c>
       <c r="M35">
-        <v>-0.008042689969345099</v>
+        <v>-0.0162757317547364</v>
       </c>
       <c r="N35">
-        <v>-1.33579418348967</v>
+        <v>-1.6611626617936</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
@@ -3030,19 +3039,19 @@
         <v>5540903</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,37 +3071,37 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.0074915265438227</v>
+        <v>0.0117448488654661</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.886904761904762</v>
+        <v>0.874251497005988</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.235</v>
+        <v>0.233</v>
       </c>
       <c r="K36">
-        <v>0.0049369185788575</v>
+        <v>0.0049915806427996</v>
       </c>
       <c r="L36">
-        <v>0.0014406851639367</v>
+        <v>0.0010129303718618</v>
       </c>
       <c r="M36">
-        <v>0.0081364281417201</v>
+        <v>0.0087097386328839</v>
       </c>
       <c r="N36">
-        <v>2.10081641653512</v>
+        <v>2.1423092887552</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1863602</v>
@@ -3101,19 +3110,19 @@
         <v>5540903</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,31 +3142,31 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.996183548825866</v>
+        <v>0.993561619094237</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.886904761904762</v>
+        <v>0.88622754491018</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="K37">
-        <v>-0.08526899978741501</v>
+        <v>-0.0688713126457258</v>
       </c>
       <c r="L37">
-        <v>-0.148072189802831</v>
+        <v>-0.128962085085284</v>
       </c>
       <c r="M37">
-        <v>-0.0404351675536919</v>
+        <v>-0.0299787998585634</v>
       </c>
       <c r="N37">
-        <v>-3.14645755673118</v>
+        <v>-2.64889664022022</v>
       </c>
       <c r="O37" t="s">
         <v>42</v>
@@ -3172,19 +3181,19 @@
         <v>5540903</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3204,13 +3213,13 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.336747810956146</v>
+        <v>0.040476089851491</v>
       </c>
       <c r="G38">
-        <v>0.012987012987013</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="H38">
-        <v>0.668831168831169</v>
+        <v>0.686274509803922</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3219,22 +3228,22 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>-0.0020615626511852</v>
+        <v>-0.0124490847885546</v>
       </c>
       <c r="L38">
-        <v>-0.0178326268922455</v>
+        <v>-0.0314648021987991</v>
       </c>
       <c r="M38">
-        <v>0.0134559374056628</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>-0.206156265118529</v>
+        <v>-1.24490847885546</v>
       </c>
       <c r="O38" t="s">
         <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1863602</v>
@@ -3243,19 +3252,19 @@
         <v>5540903</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,37 +3284,37 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.0001387987613653</v>
+        <v>0.0008893754028646001</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.807106598984772</v>
+        <v>0.812807881773399</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.175</v>
+        <v>0.168</v>
       </c>
       <c r="K39">
-        <v>0.0045020543254964</v>
+        <v>0.0036591530054644</v>
       </c>
       <c r="L39">
-        <v>0.0022776057614051</v>
+        <v>0.0015772283012005</v>
       </c>
       <c r="M39">
-        <v>0.0070029479937679</v>
+        <v>0.0054483499601036</v>
       </c>
       <c r="N39">
-        <v>2.57260247171227</v>
+        <v>2.17806726515743</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q39">
         <v>1863602</v>
@@ -3314,19 +3323,19 @@
         <v>5540903</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3346,37 +3355,37 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.931406981358333</v>
+        <v>0.836387320348568</v>
       </c>
       <c r="G40">
-        <v>0.0149253731343284</v>
+        <v>0.0097087378640776</v>
       </c>
       <c r="H40">
-        <v>0.7114427860696519</v>
+        <v>0.742718446601942</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>470</v>
+        <v>474.5</v>
       </c>
       <c r="K40">
-        <v>-6.29743251317632</v>
+        <v>-5.07064487236901</v>
       </c>
       <c r="L40">
-        <v>-16.6711350436408</v>
+        <v>-14.813852425985</v>
       </c>
       <c r="M40">
-        <v>2.34880655469926</v>
+        <v>3.14470713275241</v>
       </c>
       <c r="N40">
-        <v>-1.33987925812262</v>
+        <v>-1.06862905634753</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q40">
         <v>1863602</v>
@@ -3385,19 +3394,19 @@
         <v>5540903</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3417,31 +3426,31 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.999984017818553</v>
+        <v>0.999998215798628</v>
       </c>
       <c r="G41">
-        <v>0.138297872340426</v>
+        <v>0.15979381443299</v>
       </c>
       <c r="H41">
-        <v>0.872340425531915</v>
+        <v>0.850515463917526</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41">
-        <v>0.120882455742628</v>
+        <v>0.115105199868746</v>
       </c>
       <c r="K41">
-        <v>-0.0048833189935256</v>
+        <v>-0.0048027351371714</v>
       </c>
       <c r="L41">
-        <v>-0.0085858015171561</v>
+        <v>-0.0080569328031262</v>
       </c>
       <c r="M41">
-        <v>-0.0027357449596503</v>
+        <v>-0.0027511545973435</v>
       </c>
       <c r="N41">
-        <v>-4.03972517229694</v>
+        <v>-4.17247452126225</v>
       </c>
       <c r="O41" t="s">
         <v>42</v>
@@ -3456,19 +3465,19 @@
         <v>5540903</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3488,37 +3497,37 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.323705322771183</v>
+        <v>0.635665225353347</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.818181818181818</v>
+        <v>0.823834196891192</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="K42">
-        <v>0.0020720510216994</v>
+        <v>-0.0017427481094263</v>
       </c>
       <c r="L42">
-        <v>-0.0058418127800988</v>
+        <v>-0.0089151512720222</v>
       </c>
       <c r="M42">
-        <v>0.0091289802077103</v>
+        <v>0.0050027399755974</v>
       </c>
       <c r="N42">
-        <v>0.207205102169949</v>
+        <v>-0.178743395838596</v>
       </c>
       <c r="O42" t="s">
         <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q42">
         <v>1863602</v>
@@ -3527,19 +3536,19 @@
         <v>5540903</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,31 +3568,31 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.729036223555938</v>
+        <v>0.972561173650659</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.908629441624365</v>
+        <v>0.911330049261084</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.316</v>
+        <v>1.27</v>
       </c>
       <c r="K43">
-        <v>-0.0031673893199452</v>
+        <v>-0.0110052149178255</v>
       </c>
       <c r="L43">
-        <v>-0.0149218154455378</v>
+        <v>-0.0193506112130709</v>
       </c>
       <c r="M43">
-        <v>0.007268979935976</v>
+        <v>-0.0012884863519919</v>
       </c>
       <c r="N43">
-        <v>-0.240683079023195</v>
+        <v>-0.866552355734294</v>
       </c>
       <c r="O43" t="s">
         <v>42</v>
@@ -3598,19 +3607,19 @@
         <v>5540903</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,31 +3639,31 @@
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.999976821655981</v>
+        <v>0.999904453106176</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.875621890547264</v>
+        <v>0.879227053140097</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K44">
-        <v>-0.124031030444965</v>
+        <v>-0.0900205385668645</v>
       </c>
       <c r="L44">
-        <v>-0.202105048741534</v>
+        <v>-0.1506277960173</v>
       </c>
       <c r="M44">
-        <v>-0.0689120218280731</v>
+        <v>-0.047301328751638</v>
       </c>
       <c r="N44">
-        <v>-4.24763802893715</v>
+        <v>-3.21501923453087</v>
       </c>
       <c r="O44" t="s">
         <v>42</v>
@@ -3669,19 +3678,19 @@
         <v>5540903</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3701,7 +3710,7 @@
         <v>39</v>
       </c>
       <c r="F45">
-        <v>0.768783636774762</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3713,25 +3722,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.469</v>
+        <v>0.531</v>
       </c>
       <c r="K45">
-        <v>0.0297634529506462</v>
+        <v>0.034781476578368</v>
       </c>
       <c r="L45">
-        <v>-0.0304643449240386</v>
+        <v>-0.0055285318979566</v>
       </c>
       <c r="M45">
         <v>0.0588175855385793</v>
       </c>
       <c r="N45">
-        <v>6.34615201506315</v>
+        <v>6.55018391306364</v>
       </c>
       <c r="O45" t="s">
         <v>42</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1863602</v>
@@ -3740,16 +3749,16 @@
         <v>5540903</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3781,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>106.15</v>
+        <v>108</v>
       </c>
       <c r="K46">
-        <v>1.71122037241534</v>
+        <v>0.537092422070127</v>
       </c>
       <c r="L46">
         <v>-6.93805697242635</v>
       </c>
       <c r="M46">
-        <v>7.24604625177176</v>
+        <v>4.37206891592805</v>
       </c>
       <c r="N46">
-        <v>1.61207760001445</v>
+        <v>0.49730779821308</v>
       </c>
       <c r="O46" t="s">
         <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q46">
         <v>1863602</v>
@@ -3808,16 +3817,16 @@
         <v>5540903</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3837,7 +3846,7 @@
         <v>39</v>
       </c>
       <c r="F47">
-        <v>0.59675202974633</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3852,22 +3861,22 @@
         <v>6.34</v>
       </c>
       <c r="K47">
-        <v>0.383005110908393</v>
+        <v>0.701548958973668</v>
       </c>
       <c r="L47">
-        <v>-1.21363152199399</v>
+        <v>-0.376792169006754</v>
       </c>
       <c r="M47">
         <v>1.21717135398282</v>
       </c>
       <c r="N47">
-        <v>6.04109007741944</v>
+        <v>11.0654409932755</v>
       </c>
       <c r="O47" t="s">
         <v>42</v>
       </c>
       <c r="P47" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q47">
         <v>1863602</v>
@@ -3876,16 +3885,16 @@
         <v>5540903</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3905,7 +3914,7 @@
         <v>39</v>
       </c>
       <c r="F48">
-        <v>0.762862824616335</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3917,25 +3926,25 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.4525</v>
+        <v>0.4595</v>
       </c>
       <c r="K48">
-        <v>0.0104221789883269</v>
+        <v>0.0172459692898273</v>
       </c>
       <c r="L48">
-        <v>-0.009645125641285101</v>
+        <v>-0.0014874002794708</v>
       </c>
       <c r="M48">
-        <v>0.0338626143990591</v>
+        <v>0.0352877636051989</v>
       </c>
       <c r="N48">
-        <v>2.30324397532085</v>
+        <v>3.75320332749233</v>
       </c>
       <c r="O48" t="s">
         <v>42</v>
       </c>
       <c r="P48" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q48">
         <v>1863602</v>
@@ -3944,16 +3953,16 @@
         <v>5540903</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3973,7 +3982,7 @@
         <v>39</v>
       </c>
       <c r="F49">
-        <v>0.6408261208260559</v>
+        <v>0.816383805979686</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3985,25 +3994,25 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>98</v>
+        <v>101.075</v>
       </c>
       <c r="K49">
-        <v>0.904051490514904</v>
+        <v>1.56481323835997</v>
       </c>
       <c r="L49">
-        <v>-0.746905153638871</v>
+        <v>-0.318701750193283</v>
       </c>
       <c r="M49">
-        <v>2.91927101484121</v>
+        <v>3.70639284169375</v>
       </c>
       <c r="N49">
-        <v>0.922501520933575</v>
+        <v>1.5481704064902</v>
       </c>
       <c r="O49" t="s">
         <v>42</v>
       </c>
       <c r="P49" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q49">
         <v>1863602</v>
@@ -4012,16 +4021,16 @@
         <v>5540903</v>
       </c>
       <c r="S49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4041,7 +4050,7 @@
         <v>39</v>
       </c>
       <c r="F50">
-        <v>0.923796858021625</v>
+        <v>0.975451009195367</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4053,25 +4062,25 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>4.792</v>
+        <v>5.66</v>
       </c>
       <c r="K50">
-        <v>0.340699588477366</v>
+        <v>0.434405331510595</v>
       </c>
       <c r="L50">
-        <v>-0.116034100915673</v>
+        <v>0.06901699527594771</v>
       </c>
       <c r="M50">
-        <v>0.650101408728685</v>
+        <v>0.700220388461832</v>
       </c>
       <c r="N50">
-        <v>7.10975768942751</v>
+        <v>7.67500585707764</v>
       </c>
       <c r="O50" t="s">
         <v>42</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q50">
         <v>1863602</v>
@@ -4080,16 +4089,16 @@
         <v>5540903</v>
       </c>
       <c r="S50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4109,37 +4118,37 @@
         <v>39</v>
       </c>
       <c r="F51">
-        <v>0.824347466908378</v>
+        <v>0.892271107096311</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.928571428571429</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.4385</v>
+        <v>0.45</v>
       </c>
       <c r="K51">
-        <v>0.007895655788817299</v>
+        <v>0.0083889392565729</v>
       </c>
       <c r="L51">
-        <v>-0.0028722382717061</v>
+        <v>-0.0007356638417416</v>
       </c>
       <c r="M51">
-        <v>0.0209252592679322</v>
+        <v>0.020141282097969</v>
       </c>
       <c r="N51">
-        <v>1.80060565309402</v>
+        <v>1.86420872368289</v>
       </c>
       <c r="O51" t="s">
         <v>42</v>
       </c>
       <c r="P51" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q51">
         <v>1863602</v>
@@ -4148,16 +4157,16 @@
         <v>5540903</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4177,7 +4186,7 @@
         <v>39</v>
       </c>
       <c r="F52">
-        <v>0.6900838585899191</v>
+        <v>0.814060303616951</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4189,25 +4198,25 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.522570157855174</v>
+        <v>0.672515071590053</v>
       </c>
       <c r="L52">
-        <v>-0.632629221576771</v>
+        <v>-0.588048278949164</v>
       </c>
       <c r="M52">
-        <v>1.27074064575372</v>
+        <v>1.57235744079936</v>
       </c>
       <c r="N52">
-        <v>0.538732121500179</v>
+        <v>0.672515071590053</v>
       </c>
       <c r="O52" t="s">
         <v>42</v>
       </c>
       <c r="P52" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q52">
         <v>1863602</v>
@@ -4216,16 +4225,16 @@
         <v>5540903</v>
       </c>
       <c r="S52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4245,7 +4254,7 @@
         <v>39</v>
       </c>
       <c r="F53">
-        <v>0.905556261230231</v>
+        <v>0.962587696448458</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4257,25 +4266,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4.66</v>
+        <v>4.88</v>
       </c>
       <c r="K53">
-        <v>0.173884991230268</v>
+        <v>0.215428954423592</v>
       </c>
       <c r="L53">
-        <v>-0.0497362018120533</v>
+        <v>0.0489129113750369</v>
       </c>
       <c r="M53">
-        <v>0.301052772699286</v>
+        <v>0.302111562847077</v>
       </c>
       <c r="N53">
-        <v>3.73143758004867</v>
+        <v>4.41452775458181</v>
       </c>
       <c r="O53" t="s">
         <v>42</v>
       </c>
       <c r="P53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q53">
         <v>1863602</v>
@@ -4284,16 +4293,16 @@
         <v>5540903</v>
       </c>
       <c r="S53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4313,7 +4322,7 @@
         <v>39</v>
       </c>
       <c r="F54">
-        <v>0.903169582098212</v>
+        <v>0.891553869581445</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4325,25 +4334,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="K54">
-        <v>0.695240934434748</v>
+        <v>0.623720123631116</v>
       </c>
       <c r="L54">
-        <v>-0.103906311588563</v>
+        <v>-0.120409334786267</v>
       </c>
       <c r="M54">
-        <v>1.22210044528406</v>
+        <v>1.08097112329624</v>
       </c>
       <c r="N54">
-        <v>0.720456926875387</v>
+        <v>0.633218399625498</v>
       </c>
       <c r="O54" t="s">
         <v>42</v>
       </c>
       <c r="P54" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q54">
         <v>1863602</v>
@@ -4352,16 +4361,16 @@
         <v>5540903</v>
       </c>
       <c r="S54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
